--- a/Rabu/Statistika/Minggu 6 - Kemiringan dan Keruncingan/tugas/Pertemuan 6.xlsx
+++ b/Rabu/Statistika/Minggu 6 - Kemiringan dan Keruncingan/tugas/Pertemuan 6.xlsx
@@ -18,6 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Jumlah</t>
   </si>
@@ -385,12 +386,202 @@
   <si>
     <t>Simpangan Baku</t>
   </si>
+  <si>
+    <r>
+      <t>(m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Reference Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Kemiringan data kelompok</t>
+  </si>
+  <si>
+    <r>
+      <t>f.(m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Reference Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Reference Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>Keruncingan data kelompok</t>
+  </si>
+  <si>
+    <r>
+      <t>f.(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Reference Sans Serif"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +623,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -577,6 +774,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,8 +812,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409700" cy="546625"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -620,7 +821,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="647700" y="3305175"/>
+              <a:off x="247650" y="3505200"/>
               <a:ext cx="1409700" cy="546625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -813,7 +1014,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -821,7 +1022,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="647700" y="3305175"/>
+              <a:off x="247650" y="3505200"/>
               <a:ext cx="1409700" cy="546625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -854,19 +1055,91 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑥 ̅=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" i="0">
-                  <a:latin typeface="Cambria Math"/>
-                </a:rPr>
-                <a:t>(∑▒〖</a:t>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑥_𝑖.𝑓_𝑖 〗)/(∑▒𝑓_𝑖 )</a:t>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖.𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗)/(∑▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="id-ID" sz="1400"/>
             </a:p>
@@ -884,8 +1157,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1685925" cy="546625"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -893,7 +1166,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="619125" y="4276725"/>
+              <a:off x="219075" y="4476750"/>
               <a:ext cx="1685925" cy="546625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1104,7 +1377,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1112,7 +1385,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="619125" y="4276725"/>
+              <a:off x="219075" y="4476750"/>
               <a:ext cx="1685925" cy="546625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1145,7 +1418,85 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑆𝑅=  (∑▒〖𝑓_𝑖 |𝑥_𝑖−𝑥 ̅|〗)/(∑▒𝑓_𝑖 )</a:t>
+                <a:t>𝑆𝑅= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (∑▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖 |𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖−𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>|</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗)/(∑▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="id-ID" sz="1400"/>
             </a:p>
@@ -1163,8 +1514,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="497059"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1172,7 +1523,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3200400" y="3305175"/>
+              <a:off x="2800350" y="3505200"/>
               <a:ext cx="1809750" cy="497059"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1429,7 +1780,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1437,7 +1788,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3200400" y="3305175"/>
+              <a:off x="2800350" y="3505200"/>
               <a:ext cx="1809750" cy="497059"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1470,7 +1821,37 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑠^2=  1/(𝑛−1)</a:t>
+                <a:t>𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>2=  1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑛−1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
@@ -1485,11 +1866,95 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝑓(𝑥_𝑖−𝑥 ̅ )〗^2</a:t>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖−𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ̅ )〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
               </a:r>
               <a:endParaRPr lang="id-ID" sz="1400"/>
             </a:p>
@@ -1507,8 +1972,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1162050" cy="378822"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1615,7 +2080,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1656,7 +2121,37 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>(𝑠)= √(𝑠^2 )</a:t>
+                <a:t>(𝑠)= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="id-ID" sz="1400"/>
             </a:p>
@@ -1668,12 +2163,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1507399" cy="628442"/>
+    <xdr:ext cx="2228850" cy="575286"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1683,8 +2178,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6257925" y="3795712"/>
-              <a:ext cx="1507399" cy="628442"/>
+              <a:off x="7896225" y="3948112"/>
+              <a:ext cx="2228850" cy="575286"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1706,53 +2201,61 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Distribus</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> Kemiringan</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="1100" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐾𝑜𝑒𝑓𝑖𝑠𝑖𝑒𝑛</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑘𝑒𝑟𝑢𝑛𝑐𝑖𝑛𝑔𝑎𝑛</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="id-ID" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑘</m:t>
-                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
@@ -1762,101 +2265,55 @@
                         </m:ctrlPr>
                       </m:fPr>
                       <m:num>
-                        <m:f>
-                          <m:fPr>
+                        <m:r>
+                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="en-US" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:den>
-                        </m:f>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
+                          </m:sSupPr>
                           <m:e>
                             <m:r>
                               <a:rPr lang="id-ID" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>𝑘</m:t>
+                              <m:t>𝑛𝑆</m:t>
                             </m:r>
                           </m:e>
-                          <m:sub>
+                          <m:sup>
                             <m:r>
                               <a:rPr lang="id-ID" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                               <m:t>3</m:t>
                             </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑘</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>1</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
@@ -1870,7 +2327,7 @@
                               <a:rPr lang="id-ID" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>𝑝</m:t>
+                              <m:t>𝑓</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -1878,43 +2335,134 @@
                               <a:rPr lang="id-ID" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>90</m:t>
+                              <m:t>𝑖</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
+                        <m:sSup>
+                          <m:sSupPr>
                             <m:ctrlPr>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                              <a:rPr lang="en-US" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:sSubPr>
+                          </m:sSupPr>
                           <m:e>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑚</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>̅</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
                             <m:r>
                               <a:rPr lang="id-ID" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>𝑝</m:t>
+                              <m:t>3</m:t>
                             </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>10</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:den>
-                    </m:f>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:nary>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1931,8 +2479,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6257925" y="3795712"/>
-              <a:ext cx="1507399" cy="628442"/>
+              <a:off x="7896225" y="3948112"/>
+              <a:ext cx="2228850" cy="575286"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1954,79 +2502,654 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐾𝑜𝑒𝑓𝑖𝑠𝑖𝑒𝑛 𝑘𝑒𝑟𝑢𝑛𝑐𝑖𝑛𝑔𝑎𝑛</a:t>
-              </a:r>
-              <a:endParaRPr lang="id-ID" sz="1100"/>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Distribus</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> Kemiringan</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="1100" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="id-ID" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑘</a:t>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> (</a:t>
+                <a:t>∑▒〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑚_𝑖−𝑥̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2228850" cy="575286"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="4786312"/>
+              <a:ext cx="2228850" cy="575286"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Distribus</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> keruncingan</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="1100" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛𝑆</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑚</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>̅</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>)</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>4</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7658100" y="4786312"/>
+              <a:ext cx="2228850" cy="575286"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Distribus</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> keruncingan</a:t>
+              </a:r>
+              <a:endParaRPr lang="id-ID" sz="1100" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
                 <a:t> 1</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>/</a:t>
+                <a:t>/〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>2(𝑘_3−𝑘_1)</a:t>
+                <a:t>𝑛𝑆</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>)/(</a:t>
+                <a:t>〗^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑝</a:t>
+                <a:t>4</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
                 <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>90−𝑝_10</a:t>
+                <a:t>𝑖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t> )</a:t>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑚_𝑖−𝑥̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -2336,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R22"/>
+  <dimension ref="A2:V22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H11" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2351,40 +3474,43 @@
     <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="1"/>
     <col min="10" max="11" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.85546875" style="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="3" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="2:18" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:22" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2427,8 +3553,20 @@
       <c r="R7" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="S7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>30</v>
       </c>
@@ -2458,7 +3596,7 @@
         <v>39.5</v>
       </c>
       <c r="J8" s="6">
-        <f>SUMIF($B$8:$B$14,"&lt;="&amp;B8,$E$8:$E$14)</f>
+        <f t="shared" ref="J8:J14" si="0">SUMIF($B$8:$B$14,"&lt;="&amp;B8,$E$8:$E$14)</f>
         <v>2</v>
       </c>
       <c r="K8" s="6">
@@ -2470,7 +3608,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8:M14" si="0">$E$17</f>
+        <f t="shared" ref="M8:M14" si="1">$E$17</f>
         <v>72.5</v>
       </c>
       <c r="N8" s="6">
@@ -2493,8 +3631,24 @@
         <f>E8*Q8</f>
         <v>2888</v>
       </c>
+      <c r="S8" s="16">
+        <f>O8^3</f>
+        <v>54872</v>
+      </c>
+      <c r="T8" s="6">
+        <f>E8*S8</f>
+        <v>109744</v>
+      </c>
+      <c r="U8" s="17">
+        <f>O8^4</f>
+        <v>2085136</v>
+      </c>
+      <c r="V8" s="6">
+        <f>E8*U8</f>
+        <v>4170272</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>40</v>
       </c>
@@ -2508,23 +3662,23 @@
         <v>3</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F14" si="1">B9</f>
+        <f t="shared" ref="F9:F14" si="2">B9</f>
         <v>40</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G9:G14" si="2">D9</f>
+        <f t="shared" ref="G9:G14" si="3">D9</f>
         <v>49</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:H14" si="3">B9-0.5</f>
+        <f t="shared" ref="H9:H14" si="4">B9-0.5</f>
         <v>39.5</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" ref="I9:I14" si="4">D9+0.5</f>
+        <f t="shared" ref="I9:I14" si="5">D9+0.5</f>
         <v>49.5</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:J14" si="5">SUMIF($B$8:$B$14,"&lt;="&amp;B9,$E$8:$E$14)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K9" s="6">
@@ -2536,7 +3690,7 @@
         <v>133.5</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="N9" s="6">
@@ -2559,8 +3713,24 @@
         <f t="shared" ref="R9:R14" si="12">E9*Q9</f>
         <v>2352</v>
       </c>
+      <c r="S9" s="16">
+        <f t="shared" ref="S9:S14" si="13">O9^3</f>
+        <v>21952</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" ref="T9:T14" si="14">E9*S9</f>
+        <v>65856</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" ref="U9:U14" si="15">O9^4</f>
+        <v>614656</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" ref="V9:V14" si="16">E9*U9</f>
+        <v>1843968</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>50</v>
       </c>
@@ -2574,23 +3744,23 @@
         <v>11</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.5</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K10" s="6">
@@ -2602,7 +3772,7 @@
         <v>599.5</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="N10" s="6">
@@ -2625,8 +3795,24 @@
         <f t="shared" si="12"/>
         <v>3564</v>
       </c>
+      <c r="S10" s="16">
+        <f t="shared" si="13"/>
+        <v>5832</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="14"/>
+        <v>64152</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" si="15"/>
+        <v>104976</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="16"/>
+        <v>1154736</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>60</v>
       </c>
@@ -2640,23 +3826,23 @@
         <v>20</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.5</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="K11" s="6">
@@ -2668,7 +3854,7 @@
         <v>1290</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="N11" s="6">
@@ -2691,8 +3877,24 @@
         <f t="shared" si="12"/>
         <v>1280</v>
       </c>
+      <c r="S11" s="16">
+        <f t="shared" si="13"/>
+        <v>512</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="14"/>
+        <v>10240</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="15"/>
+        <v>4096</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="16"/>
+        <v>81920</v>
+      </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>70</v>
       </c>
@@ -2706,23 +3908,23 @@
         <v>32</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.5</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.5</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="K12" s="6">
@@ -2734,7 +3936,7 @@
         <v>2384</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="N12" s="6">
@@ -2757,8 +3959,24 @@
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
+      <c r="S12" s="16">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="16"/>
+        <v>512</v>
+      </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>80</v>
       </c>
@@ -2772,15 +3990,15 @@
         <v>25</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
       <c r="I13" s="6">
@@ -2788,7 +4006,7 @@
         <v>89.5</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="K13" s="6">
@@ -2800,7 +4018,7 @@
         <v>2112.5</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="N13" s="6">
@@ -2823,8 +4041,24 @@
         <f t="shared" si="12"/>
         <v>3600</v>
       </c>
+      <c r="S13" s="16">
+        <f t="shared" si="13"/>
+        <v>1728</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="14"/>
+        <v>43200</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="15"/>
+        <v>20736</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="16"/>
+        <v>518400</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>90</v>
       </c>
@@ -2838,23 +4072,23 @@
         <v>7</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
       <c r="J14" s="6">
-        <f>SUMIF($B$8:$B$14,"&lt;="&amp;B14,$E$8:$E$14)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K14" s="6">
@@ -2866,7 +4100,7 @@
         <v>661.5</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="N14" s="6">
@@ -2889,13 +4123,29 @@
         <f t="shared" si="12"/>
         <v>3388</v>
       </c>
+      <c r="S14" s="16">
+        <f t="shared" si="13"/>
+        <v>10648</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="14"/>
+        <v>74536</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="15"/>
+        <v>234256</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="16"/>
+        <v>1639792</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="1">
         <f>SUM(E8:E14)</f>
         <v>100</v>
@@ -2912,8 +4162,16 @@
         <f>SUM(R8:R14)</f>
         <v>17200</v>
       </c>
+      <c r="T15" s="6">
+        <f>SUM(T8:T14)</f>
+        <v>367984</v>
+      </c>
+      <c r="V15" s="6">
+        <f>SUM(V8:V14)</f>
+        <v>9409600</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2934,8 +4192,32 @@
         <f>(1/(E15-1))*R15</f>
         <v>173.73737373737376</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1">
+        <f>(1/(E15*I22)^3)*T15</f>
+        <v>1.6069007647092658E-4</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f>IF(P17&lt;0,"Distribusi data miring ke kiri",IF(P17&gt;0,"Distribusi data miring ke kanan","Distribusi data simetris"))</f>
+        <v>Distribusi data miring ke kanan</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="15">
+        <f>(1/(E15*I22)^4)*V15</f>
+        <v>3.117343482963764E-6</v>
+      </c>
+      <c r="Q18" s="14" t="str">
+        <f>IF(P18&lt;3,"Distribusi keruncingan data disebut platikurtis",IF(P18&gt;3,"Distribusi kemiringan data disebut leptokurtis","Distribusi keruncingan data disebut mesokurtis"))</f>
+        <v>Distribusi keruncingan data disebut platikurtis</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2953,8 +4235,8 @@
         <v>23</v>
       </c>
       <c r="I22" s="1">
-        <f>SQRT(I17)^2</f>
-        <v>173.73737373737376</v>
+        <f>SQRT(I17)</f>
+        <v>13.18094737632215</v>
       </c>
     </row>
   </sheetData>
